--- a/05-linear_regression/Summary_sheet_AP23110011300.xlsx
+++ b/05-linear_regression/Summary_sheet_AP23110011300.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvmit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSE303_ML_LAB\05-linear_regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F74258-E1AD-45AC-A5AD-890412320E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7269EB-1DC6-4B87-A07A-FBA9CB090A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,9 +538,6 @@
     <t>Perfect Fit</t>
   </si>
   <si>
-    <t>Polynomial Regression</t>
-  </si>
-  <si>
     <t>This model achieved the highest performance among all tested (R² = 0.32, RMSE = 0.74), showing better fit than plain Linear Regression, Ridge, or Lasso.</t>
   </si>
   <si>
@@ -554,6 +551,9 @@
   </si>
   <si>
     <t>80/20</t>
+  </si>
+  <si>
+    <t>Polynomial Regression(all features,degree=2)</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -814,15 +814,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,34 +828,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -877,13 +859,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -907,6 +886,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1125,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1143,30 +1142,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1" t="s">
@@ -1180,7 +1179,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1218,8 +1217,8 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>165</v>
+      <c r="B11" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
@@ -1231,30 +1230,30 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1" t="s">
@@ -1316,7 +1315,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1330,231 +1329,231 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="16">
         <v>106</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>133</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="13">
         <v>16</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="13">
         <v>178</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="13">
         <v>6</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="17">
         <v>46</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="17">
         <v>96</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="17">
         <v>0</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="1">
@@ -1568,7 +1567,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="1">
@@ -1582,7 +1581,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B41" s="1">
@@ -1596,58 +1595,58 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="20" t="s">
         <v>128</v>
       </c>
       <c r="D46" s="1"/>
@@ -1657,28 +1656,28 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1">
@@ -1699,275 +1698,275 @@
       <c r="F48" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="26">
         <v>124.151</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="26">
         <v>1.9630000000000001</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="26">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="26">
         <v>0.58399999999999996</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="26">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="26">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="26">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H53" s="35" t="s">
+      <c r="H53" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="26">
         <v>1E-3</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="26" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="28">
         <v>6.7199999999999997E-16</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="26">
         <v>1.76</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="28">
         <v>3.7900000000000002E-19</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="35" t="s">
+      <c r="H58" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G59" s="9"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="30" t="s">
         <v>147</v>
       </c>
       <c r="D62" s="1">
@@ -1976,7 +1975,7 @@
       <c r="E62" s="1">
         <v>0.21</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="20" t="s">
         <v>148</v>
       </c>
       <c r="G62" s="1"/>
@@ -1984,10 +1983,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="30" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="1">
@@ -1996,33 +1995,33 @@
       <c r="E63" s="1">
         <v>0.32</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="20" t="s">
         <v>151</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
@@ -2038,42 +2037,42 @@
       <c r="E65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="20" t="s">
         <v>153</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D67" s="1">
@@ -2083,17 +2082,17 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="28" t="s">
+      <c r="G67" s="20" t="s">
         <v>157</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="23" t="s">
         <v>155</v>
       </c>
       <c r="D68" s="1">
@@ -2105,7 +2104,7 @@
       <c r="F68" s="1">
         <v>17</v>
       </c>
-      <c r="G68" s="28" t="s">
+      <c r="G68" s="20" t="s">
         <v>158</v>
       </c>
       <c r="H68" s="1"/>
@@ -2113,7 +2112,7 @@
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="40"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2121,28 +2120,28 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
@@ -2161,59 +2160,59 @@
       <c r="F71" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="20" t="s">
         <v>159</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="14"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="C75" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="D75" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="E75" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>164</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2221,7 +2220,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2247,28 +2246,28 @@
     <row r="97" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="98" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D99" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F99" s="34" t="s">
+      <c r="F99" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G99" s="34" t="s">
+      <c r="G99" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2282,54 +2281,54 @@
     <row r="107" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="108" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="3:8" ht="15.75" customHeight="1">
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
     </row>
     <row r="114" spans="3:8" ht="15.75" customHeight="1">
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
     </row>
     <row r="115" spans="3:8" ht="15.75" customHeight="1"/>
     <row r="116" spans="3:8" ht="15.75" customHeight="1"/>
